--- a/documentos/Backlog Requisitos (4).xlsx
+++ b/documentos/Backlog Requisitos (4).xlsx
@@ -5,28 +5,39 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dra.Irene\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04AB948-E61A-4C62-A176-3205C33EEB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{C04AB948-E61A-4C62-A176-3205C33EEB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95E8C4DA-8223-4C8E-9F1E-AF470A6A1492}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="-4740" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="140">
   <si>
     <t>Vaga Fácil</t>
   </si>
@@ -286,9 +297,6 @@
     <t>Criar um banco de dados na ferramente MySQP para armazenar informações do cliente e dos sensores</t>
   </si>
   <si>
-    <t>Modelagem</t>
-  </si>
-  <si>
     <t xml:space="preserve">criar uma estrutura de informações que  serve de modelo para o comportamento de um banco de dados </t>
   </si>
   <si>
@@ -437,6 +445,18 @@
   </si>
   <si>
     <t>Recuperar a senha através do envio de um código e a criação de uma nova senha</t>
+  </si>
+  <si>
+    <t>Modelagem do Banco de Dados</t>
+  </si>
+  <si>
+    <t>Script de criação Banco de Dados</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar um script </t>
   </si>
 </sst>
 </file>
@@ -1026,6 +1046,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1342,34 +1366,34 @@
       <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="60.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -1381,7 +1405,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1392,7 +1416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1414,7 +1438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1425,7 +1449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1436,7 +1460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1447,14 +1471,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1476,7 +1500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1487,7 +1511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1498,7 +1522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1509,7 +1533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,7 +1544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1531,7 +1555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1542,7 +1566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1553,7 +1577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1564,14 +1588,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1582,7 +1606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1593,7 +1617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
@@ -1604,14 +1628,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1622,7 +1646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1633,7 +1657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
@@ -1644,7 +1668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
@@ -1655,7 +1679,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
@@ -1666,7 +1690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
@@ -1677,7 +1701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
@@ -1688,7 +1712,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
@@ -1699,7 +1723,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>64</v>
       </c>
@@ -1725,24 +1749,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
-  <dimension ref="B2:L53"/>
+  <dimension ref="B2:L54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.54296875" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1777,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
     </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -1762,7 +1786,7 @@
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
     </row>
-    <row r="4" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
@@ -1773,7 +1797,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +1820,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>70</v>
       </c>
@@ -1824,7 +1848,7 @@
       <c r="K6" s="36"/>
       <c r="L6" s="37"/>
     </row>
-    <row r="7" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>74</v>
       </c>
@@ -1856,7 +1880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>80</v>
       </c>
@@ -1867,7 +1891,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="10">
         <v>5</v>
@@ -1880,7 +1904,7 @@
       </c>
       <c r="J8" s="14">
         <f>SUM(F6:F17)</f>
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K8" s="15">
         <f>SUM(F18:F34)</f>
@@ -1888,10 +1912,10 @@
       </c>
       <c r="L8" s="16">
         <f>J8+K8</f>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>82</v>
       </c>
@@ -1902,7 +1926,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="11">
         <v>5</v>
@@ -1914,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
         <v>84</v>
       </c>
@@ -1939,21 +1963,21 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>88</v>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" s="22">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G11" s="22">
         <v>25</v>
@@ -1962,12 +1986,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>89</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>90</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>7</v>
@@ -1987,7 +2011,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
@@ -1998,7 +2022,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="11">
         <v>21</v>
@@ -2010,18 +2034,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>92</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>93</v>
       </c>
       <c r="F14" s="25">
         <v>8</v>
@@ -2033,18 +2057,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="F15" s="11">
         <v>5</v>
@@ -2056,18 +2080,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="D16" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>98</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>99</v>
       </c>
       <c r="F16" s="25">
         <v>5</v>
@@ -2079,18 +2103,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="23">
         <v>5</v>
@@ -2102,12 +2126,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>7</v>
@@ -2127,12 +2151,12 @@
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
@@ -2150,12 +2174,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>106</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>7</v>
@@ -2173,18 +2197,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="D21" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F21" s="11">
         <v>8</v>
@@ -2196,18 +2220,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>110</v>
-      </c>
       <c r="D22" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="25">
         <v>8</v>
@@ -2219,15 +2243,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>76</v>
@@ -2242,18 +2266,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="25">
         <v>8</v>
@@ -2265,18 +2289,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="F25" s="11">
         <v>13</v>
@@ -2288,18 +2312,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>119</v>
-      </c>
       <c r="D26" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>116</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>117</v>
       </c>
       <c r="F26" s="25">
         <v>13</v>
@@ -2311,15 +2335,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>76</v>
@@ -2334,18 +2358,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>123</v>
-      </c>
       <c r="D28" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="25">
         <v>8</v>
@@ -2357,18 +2381,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="D29" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="11">
         <v>5</v>
@@ -2380,18 +2404,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>127</v>
-      </c>
       <c r="D30" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="25">
         <v>8</v>
@@ -2403,18 +2427,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="D31" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" s="11">
         <v>8</v>
@@ -2426,12 +2450,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>130</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>131</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>7</v>
@@ -2449,12 +2473,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>7</v>
@@ -2472,9 +2496,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>65</v>
@@ -2495,28 +2519,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-    </row>
-    <row r="46" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-    </row>
-    <row r="48" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="11">
+        <v>13</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -2525,17 +2561,17 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-    </row>
-    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -2544,7 +2580,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -2553,7 +2589,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -2561,6 +2597,15 @@
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/documentos/Backlog Requisitos (4).xlsx
+++ b/documentos/Backlog Requisitos (4).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{C04AB948-E61A-4C62-A176-3205C33EEB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95E8C4DA-8223-4C8E-9F1E-AF470A6A1492}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{C04AB948-E61A-4C62-A176-3205C33EEB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA0FA597-6830-48B8-AD8D-DBE7FDB63090}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
@@ -1751,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
   <dimension ref="B2:L54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1880,7 +1880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>80</v>
       </c>

--- a/documentos/Backlog Requisitos (4).xlsx
+++ b/documentos/Backlog Requisitos (4).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{C04AB948-E61A-4C62-A176-3205C33EEB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA0FA597-6830-48B8-AD8D-DBE7FDB63090}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{C04AB948-E61A-4C62-A176-3205C33EEB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2C23499-D59A-432E-9034-47CD6EA649AF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
@@ -515,7 +515,7 @@
       <name val="Bahnschrift SemiBold"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,14 +540,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -768,37 +762,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -860,18 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1375,23 +1331,23 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
@@ -1751,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
   <dimension ref="B2:L54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:U47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1767,35 +1723,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
@@ -1842,11 +1798,11 @@
       <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
     </row>
     <row r="7" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
@@ -1908,11 +1864,11 @@
       </c>
       <c r="K8" s="15">
         <f>SUM(F18:F34)</f>
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L8" s="16">
         <f>J8+K8</f>
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1964,48 +1920,48 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="11">
         <v>13</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="11">
         <v>25</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="10">
         <v>13</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="10">
         <v>6</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="10">
         <v>4</v>
       </c>
       <c r="J12" s="19"/>
@@ -2035,25 +1991,25 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="10">
         <v>8</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="10">
         <v>5</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2081,71 +2037,71 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="10">
         <v>5</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="10">
         <v>27</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="23" t="s">
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="11">
         <v>5</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="11">
         <v>28</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="10">
         <v>13</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="10">
         <v>8</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="10">
         <v>2</v>
       </c>
       <c r="J18" s="18"/>
@@ -2175,25 +2131,25 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="10">
         <v>13</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="10">
         <v>20</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2221,25 +2177,25 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="10">
         <v>8</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="10">
         <v>21</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2267,25 +2223,25 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="10">
         <v>8</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="10">
         <v>22</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2313,25 +2269,25 @@
       </c>
     </row>
     <row r="26" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="10">
         <v>13</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="10">
         <v>23</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2359,25 +2315,25 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="25" t="s">
+      <c r="D28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="10">
         <v>8</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="10">
         <v>10</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2405,25 +2361,25 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="25" t="s">
+      <c r="D30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="10">
         <v>8</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="10">
         <v>12</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2438,10 +2394,10 @@
         <v>7</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F31" s="11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G31" s="11">
         <v>13</v>
@@ -2451,25 +2407,25 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="25" t="s">
+      <c r="D32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="10">
         <v>13</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="10">
         <v>24</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2497,25 +2453,25 @@
       </c>
     </row>
     <row r="34" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="10">
         <v>13</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="10">
         <v>29</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="10">
         <v>4</v>
       </c>
     </row>

--- a/documentos/Backlog Requisitos (4).xlsx
+++ b/documentos/Backlog Requisitos (4).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\sprint2\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{C04AB948-E61A-4C62-A176-3205C33EEB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2C23499-D59A-432E-9034-47CD6EA649AF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -1002,10 +1002,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1322,34 +1318,34 @@
       <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.7265625" customWidth="1"/>
-    <col min="3" max="3" width="60.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28"/>
     </row>
-    <row r="4" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
     </row>
-    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -1361,7 +1357,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1383,7 +1379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +1390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1405,7 +1401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,7 +1412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1427,14 +1423,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1445,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1456,7 +1452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,7 +1463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,7 +1474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1489,7 +1485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1500,7 +1496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1511,7 +1507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1522,7 +1518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1533,7 +1529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1544,14 +1540,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1562,7 +1558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1573,7 +1569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
@@ -1584,14 +1580,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1602,7 +1598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1613,7 +1609,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
@@ -1624,7 +1620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
@@ -1635,7 +1631,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
@@ -1646,7 +1642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
@@ -1657,7 +1653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
@@ -1668,7 +1664,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
@@ -1679,7 +1675,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>64</v>
       </c>
@@ -1707,22 +1703,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
   <dimension ref="B2:L54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="53.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.54296875" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1729,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -1742,7 +1738,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
     </row>
-    <row r="4" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
@@ -1753,7 +1749,7 @@
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1776,7 +1772,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>70</v>
       </c>
@@ -1804,7 +1800,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>74</v>
       </c>
@@ -1836,7 +1832,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>80</v>
       </c>
@@ -1871,7 +1867,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>82</v>
       </c>
@@ -1894,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>84</v>
       </c>
@@ -1919,7 +1915,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>136</v>
       </c>
@@ -1942,7 +1938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>88</v>
       </c>
@@ -1967,7 +1963,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
@@ -1990,7 +1986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>91</v>
       </c>
@@ -2013,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>93</v>
       </c>
@@ -2036,7 +2032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>96</v>
       </c>
@@ -2059,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>99</v>
       </c>
@@ -2082,7 +2078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>100</v>
       </c>
@@ -2107,7 +2103,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
@@ -2130,7 +2126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>104</v>
       </c>
@@ -2153,7 +2149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>106</v>
       </c>
@@ -2176,7 +2172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>108</v>
       </c>
@@ -2199,7 +2195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>110</v>
       </c>
@@ -2222,7 +2218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>112</v>
       </c>
@@ -2245,7 +2241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>113</v>
       </c>
@@ -2268,7 +2264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>117</v>
       </c>
@@ -2291,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>119</v>
       </c>
@@ -2314,7 +2310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>121</v>
       </c>
@@ -2337,7 +2333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>123</v>
       </c>
@@ -2360,7 +2356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>125</v>
       </c>
@@ -2383,7 +2379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>127</v>
       </c>
@@ -2406,7 +2402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>129</v>
       </c>
@@ -2429,7 +2425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>131</v>
       </c>
@@ -2452,7 +2448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>132</v>
       </c>
@@ -2475,7 +2471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>137</v>
       </c>
@@ -2486,19 +2482,19 @@
         <v>138</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F35" s="11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -2507,8 +2503,8 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -2517,7 +2513,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -2526,8 +2522,8 @@
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -2536,7 +2532,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -2545,7 +2541,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -2554,7 +2550,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>

--- a/documentos/Backlog Requisitos (4).xlsx
+++ b/documentos/Backlog Requisitos (4).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,7 +16,7 @@
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -285,6 +285,9 @@
     <t>Configurar os arquivos do projeto na plataforma GitHub para consulta de ambos os integrantes do projeto</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>Configurar ferramenta de gestão</t>
   </si>
   <si>
@@ -297,78 +300,84 @@
     <t>Criar um banco de dados na ferramente MySQP para armazenar informações do cliente e dos sensores</t>
   </si>
   <si>
+    <t>Modelagem do Banco de Dados</t>
+  </si>
+  <si>
     <t xml:space="preserve">criar uma estrutura de informações que  serve de modelo para o comportamento de um banco de dados </t>
   </si>
   <si>
+    <t>Criação do código Arduino</t>
+  </si>
+  <si>
+    <t>Criar um código onde será feita a captura de dados do sensor de bloqueio e inclui-los em um gráfico</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>Diagrama do projeto</t>
+  </si>
+  <si>
+    <t>Criar um diagrama de visão de negócio sobre os nossos serviços ao cilente</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Diagrama de Solução (arquitetura tecnica do projeto)</t>
+  </si>
+  <si>
+    <t>Criar uma sequência visual que demonstra a arquitetura tecnica do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P </t>
+  </si>
+  <si>
+    <t>Planilha de Riscos do projeto</t>
+  </si>
+  <si>
+    <t>Criar planilha que irá mostrar quais são os riscos do projeto</t>
+  </si>
+  <si>
+    <t>Especificação do Analytics/Metricas</t>
+  </si>
+  <si>
+    <t>Especificar quais são os métodos utilizados e suas métricas</t>
+  </si>
+  <si>
+    <t>Protótipo do site institucional</t>
+  </si>
+  <si>
+    <t>Criar o protótipo do site institucional das sessões: Início, Sobre Nós, Simulador, Cadastro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão Calculadora </t>
+  </si>
+  <si>
+    <t>Realizar um cálculo de redução de gastos com base nas informações do cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código da calculadora </t>
+  </si>
+  <si>
+    <t>Desenvolvimento da lógica e do código da calculadora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão Login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar o login do cliente através de um email e uma senha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validação e lógica do Login </t>
+  </si>
+  <si>
+    <t>Validação dos dados inseridos pelo usuário e retornar permissão.</t>
+  </si>
+  <si>
     <t>Importante</t>
   </si>
   <si>
-    <t>Criação do código Arduino</t>
-  </si>
-  <si>
-    <t>Criar um código onde será feita a captura de dados do sensor de bloqueio e inclui-los em um gráfico</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>Diagrama do projeto</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Diagrama de Solução (arquitetura tecnica do projeto)</t>
-  </si>
-  <si>
-    <t>Criar uma sequência visual que demonstra a arquitetura tecnica do projeto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P </t>
-  </si>
-  <si>
-    <t>Planilha de Riscos do projeto</t>
-  </si>
-  <si>
-    <t>Criar planilha que irá mostrar quais são os riscos do projeto</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Especificação do Analytics/Metricas</t>
-  </si>
-  <si>
-    <t>Protótipo do site institucional</t>
-  </si>
-  <si>
-    <t>Criar o protótipo do site institucional das sessões: Início, Sobre Nós, Simulador, Cadastro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessão Calculadora </t>
-  </si>
-  <si>
-    <t>Realizar um cálculo de redução de gastos com base nas informações do cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código da calculadora </t>
-  </si>
-  <si>
-    <t>Desenvolvimento da lógica e do código da calculadora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessão Login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar o login do cliente através de um email e uma senha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validação e lógica do Login </t>
-  </si>
-  <si>
-    <t>Validação dos dados inseridos pelo usuário e retornar permissão.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sessão Recuperação de senha </t>
   </si>
   <si>
@@ -378,6 +387,9 @@
     <t xml:space="preserve">Validação e lógica da recuperação de senha </t>
   </si>
   <si>
+    <t>Recuperar a senha através do envio de um código e a criação de uma nova senha</t>
+  </si>
+  <si>
     <t>Sessão Dashboard</t>
   </si>
   <si>
@@ -438,32 +450,20 @@
     <t>Responsividade do site</t>
   </si>
   <si>
-    <t>Criar um diagrama de visão de negócio sobre os nossos serviços ao cilente</t>
-  </si>
-  <si>
-    <t>Especificar quais são os métodos utilizados e suas métricas</t>
-  </si>
-  <si>
-    <t>Recuperar a senha através do envio de um código e a criação de uma nova senha</t>
-  </si>
-  <si>
-    <t>Modelagem do Banco de Dados</t>
-  </si>
-  <si>
     <t>Script de criação Banco de Dados</t>
   </si>
   <si>
+    <t xml:space="preserve">Criar um script </t>
+  </si>
+  <si>
     <t>Essencial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar um script </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,7 +1016,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1318,34 +1318,34 @@
       <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="60.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:8">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1">
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28"/>
     </row>
-    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15.75">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="30" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="30" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="30" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="30" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="30" customHeight="1">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="30" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1423,14 +1423,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="30" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="30" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="30" customHeight="1">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="30" customHeight="1">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="30" customHeight="1">
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1">
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1">
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1">
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1540,14 +1540,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1">
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1">
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1">
       <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
@@ -1580,14 +1580,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="30" customHeight="1">
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="30" customHeight="1">
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="30" customHeight="1">
       <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" ht="30" customHeight="1">
       <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="30" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="30" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="30" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="30" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="30" customHeight="1">
       <c r="B36" s="3" t="s">
         <v>64</v>
       </c>
@@ -1707,7 +1707,7 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="53.7109375" customWidth="1"/>
@@ -1718,7 +1718,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="14.45" customHeight="1">
       <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="15" customHeight="1">
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -1738,7 +1738,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
     </row>
-    <row r="4" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="21" customHeight="1">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="19.5" customHeight="1" thickBot="1">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="40.15" customHeight="1">
       <c r="B6" s="10" t="s">
         <v>70</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="40.15" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>74</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="40.15" customHeight="1" thickBot="1">
       <c r="B8" s="10" t="s">
         <v>80</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F8" s="10">
         <v>5</v>
@@ -1867,18 +1867,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="40.15" customHeight="1">
       <c r="B9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="F9" s="11">
         <v>5</v>
@@ -1890,12 +1890,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="40.15" customHeight="1">
       <c r="B10" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>7</v>
@@ -1915,12 +1915,12 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="40.15" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -1938,12 +1938,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="40.15" customHeight="1">
       <c r="B12" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>7</v>
@@ -1963,7 +1963,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="40.15" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" s="11">
         <v>21</v>
@@ -1986,18 +1986,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="40.15" customHeight="1">
       <c r="B14" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F14" s="10">
         <v>8</v>
@@ -2009,18 +2009,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="40.15" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="11">
         <v>5</v>
@@ -2032,18 +2032,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="40.15" customHeight="1">
       <c r="B16" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F16" s="10">
         <v>5</v>
@@ -2055,18 +2055,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="40.15" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F17" s="11">
         <v>5</v>
@@ -2078,12 +2078,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="40.15" customHeight="1">
       <c r="B18" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>7</v>
@@ -2103,12 +2103,12 @@
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="40.15" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
@@ -2126,12 +2126,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="40.15" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>7</v>
@@ -2149,18 +2149,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="40.15" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F21" s="11">
         <v>8</v>
@@ -2172,18 +2172,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="40.15" customHeight="1">
       <c r="B22" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F22" s="10">
         <v>8</v>
@@ -2195,15 +2195,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="40.15" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>76</v>
@@ -2218,18 +2218,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="40.15" customHeight="1">
       <c r="B24" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="E24" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F24" s="10">
         <v>8</v>
@@ -2241,18 +2241,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="40.15" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F25" s="11">
         <v>13</v>
@@ -2264,18 +2264,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="40.15" customHeight="1">
       <c r="B26" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F26" s="10">
         <v>13</v>
@@ -2287,15 +2287,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="40.15" customHeight="1">
       <c r="B27" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>76</v>
@@ -2310,18 +2310,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="40.15" customHeight="1">
       <c r="B28" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F28" s="10">
         <v>8</v>
@@ -2333,18 +2333,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="40.15" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F29" s="11">
         <v>5</v>
@@ -2356,18 +2356,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="40.15" customHeight="1">
       <c r="B30" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F30" s="10">
         <v>8</v>
@@ -2379,12 +2379,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="40.15" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>7</v>
@@ -2402,12 +2402,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="40.15" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>7</v>
@@ -2425,12 +2425,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="40.15" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>7</v>
@@ -2448,9 +2448,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="40.15" customHeight="1">
       <c r="B34" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>65</v>
@@ -2471,18 +2471,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="40.15" customHeight="1">
       <c r="B35" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>138</v>
-      </c>
       <c r="E35" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F35" s="11">
         <v>21</v>
@@ -2492,9 +2492,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="40.15" customHeight="1"/>
+    <row r="44" spans="2:8" ht="40.15" customHeight="1"/>
+    <row r="46" spans="2:8" ht="40.15" customHeight="1">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -2503,8 +2503,8 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" ht="40.15" customHeight="1"/>
+    <row r="48" spans="2:8" ht="40.15" customHeight="1">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -2513,7 +2513,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="40.15" customHeight="1">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -2522,8 +2522,8 @@
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="40.15" customHeight="1"/>
+    <row r="51" spans="2:8" ht="40.15" customHeight="1">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -2532,7 +2532,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="40.15" customHeight="1">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -2541,7 +2541,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="40.15" customHeight="1">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -2550,7 +2550,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="40.15" customHeight="1">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>

--- a/documentos/Backlog Requisitos (4).xlsx
+++ b/documentos/Backlog Requisitos (4).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\sprint2\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6138E74C-84AF-4380-8CCD-AEE8828EA3FC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="154">
   <si>
     <t>Vaga Fácil</t>
   </si>
@@ -279,9 +280,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Criar e configurar no GitHub</t>
-  </si>
-  <si>
     <t>Configurar os arquivos do projeto na plataforma GitHub para consulta de ambos os integrantes do projeto</t>
   </si>
   <si>
@@ -345,9 +343,6 @@
     <t>Especificar quais são os métodos utilizados e suas métricas</t>
   </si>
   <si>
-    <t>Protótipo do site institucional</t>
-  </si>
-  <si>
     <t>Criar o protótipo do site institucional das sessões: Início, Sobre Nós, Simulador, Cadastro</t>
   </si>
   <si>
@@ -357,9 +352,6 @@
     <t>Realizar um cálculo de redução de gastos com base nas informações do cliente</t>
   </si>
   <si>
-    <t xml:space="preserve">Código da calculadora </t>
-  </si>
-  <si>
     <t>Desenvolvimento da lógica e do código da calculadora</t>
   </si>
   <si>
@@ -402,15 +394,9 @@
     <t xml:space="preserve">G </t>
   </si>
   <si>
-    <t>Lógica do Dashboard</t>
-  </si>
-  <si>
     <t>Tratar os dados coletados e converte-los em um gráfico</t>
   </si>
   <si>
-    <t>Cabeçalho</t>
-  </si>
-  <si>
     <t>Conjunto de sessões localizada na parte superior do site</t>
   </si>
   <si>
@@ -457,13 +443,70 @@
   </si>
   <si>
     <t>Essencial</t>
+  </si>
+  <si>
+    <t>Cabeçalho Site Institucional</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Rodapé Site Institucional</t>
+  </si>
+  <si>
+    <t>Criar e configurar o GitHub</t>
+  </si>
+  <si>
+    <t>Sessão Login (institucional)</t>
+  </si>
+  <si>
+    <t>Sessão Início</t>
+  </si>
+  <si>
+    <t>Sessão Fale Conosco</t>
+  </si>
+  <si>
+    <t>Criação do Banco de Dados</t>
+  </si>
+  <si>
+    <t>Validação e lógica Dashboard</t>
+  </si>
+  <si>
+    <t>Protótipo do Site Institucional</t>
+  </si>
+  <si>
+    <t>Responsividade do Site Institucional</t>
+  </si>
+  <si>
+    <t>Responsividade do Site Dashboard</t>
+  </si>
+  <si>
+    <t>Criar um script com os valores de cada coluna no Banco de Dados local</t>
+  </si>
+  <si>
+    <t>Adaptação das telas para diversos tamanhos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validação e lógica Calculadora </t>
+  </si>
+  <si>
+    <t>Validação e lógica Cadastro</t>
+  </si>
+  <si>
+    <t>ik</t>
+  </si>
+  <si>
+    <t>Criação e configuração do GitHub</t>
+  </si>
+  <si>
+    <t>Criação e configuração da ferramenta de gestão</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -828,6 +871,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1004,6 +1053,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E48EDCA0-1419-4C03-8F1F-E69B627A101C}" name="Tabela1" displayName="Tabela1" ref="B5:D36" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
@@ -1016,7 +1069,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1318,34 +1371,34 @@
       <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="60.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:8">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75">
-      <c r="B4" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -1357,7 +1410,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1">
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1368,7 +1421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1">
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1">
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1390,7 +1443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1">
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1401,7 +1454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1">
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,7 +1465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1">
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1423,14 +1476,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1">
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1441,7 +1494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1452,7 +1505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1">
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1463,7 +1516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1">
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1474,7 +1527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1485,7 +1538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1496,7 +1549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1507,7 +1560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1518,7 +1571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1529,7 +1582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1540,14 +1593,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1558,7 +1611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1569,7 +1622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
@@ -1580,14 +1633,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1598,7 +1651,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1609,7 +1662,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30" customHeight="1">
+    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
@@ -1620,7 +1673,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" customHeight="1">
+    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
@@ -1631,7 +1684,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="30" customHeight="1">
+    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
@@ -1642,7 +1695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30" customHeight="1">
+    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
@@ -1653,7 +1706,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" customHeight="1">
+    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
@@ -1664,7 +1717,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" customHeight="1">
+    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
@@ -1675,7 +1728,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30" customHeight="1">
+    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>64</v>
       </c>
@@ -1701,55 +1754,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
-  <dimension ref="B2:L54"/>
+  <dimension ref="A2:L54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.54296875" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.45" customHeight="1">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-    </row>
-    <row r="4" spans="2:12" ht="21" customHeight="1">
-      <c r="B4" s="29" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="2:12" ht="19.5" customHeight="1" thickBot="1">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1772,7 +1825,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="40.15" customHeight="1">
+    <row r="6" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B6" s="10" t="s">
         <v>70</v>
       </c>
@@ -1794,13 +1850,16 @@
       <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
-    </row>
-    <row r="7" spans="2:12" ht="40.15" customHeight="1">
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B7" s="11" t="s">
         <v>74</v>
       </c>
@@ -1832,18 +1891,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="40.15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="F8" s="10">
         <v>5</v>
@@ -1867,18 +1929,21 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="40.15" customHeight="1">
+    <row r="9" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>84</v>
-      </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="11">
         <v>5</v>
@@ -1890,12 +1955,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="40.15" customHeight="1">
+    <row r="10" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>7</v>
@@ -1915,12 +1983,15 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:12" ht="40.15" customHeight="1">
+    <row r="11" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -1938,12 +2009,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="40.15" customHeight="1">
+    <row r="12" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>7</v>
@@ -1963,7 +2037,10 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="2:12" ht="40.15" customHeight="1">
+    <row r="13" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>151</v>
+      </c>
       <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
@@ -1974,7 +2051,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="11">
         <v>21</v>
@@ -1986,18 +2063,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="40.15" customHeight="1">
+    <row r="14" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="F14" s="10">
         <v>8</v>
@@ -2009,18 +2089,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="40.15" customHeight="1">
+    <row r="15" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="F15" s="11">
         <v>5</v>
@@ -2032,18 +2115,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="40.15" customHeight="1">
+    <row r="16" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="D16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="10">
         <v>5</v>
@@ -2055,18 +2141,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="40.15" customHeight="1">
+    <row r="17" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="D17" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="11">
         <v>5</v>
@@ -2078,12 +2167,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="40.15" customHeight="1">
+    <row r="18" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B18" s="10" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>7</v>
@@ -2103,12 +2195,15 @@
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="2:11" ht="40.15" customHeight="1">
+    <row r="19" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B19" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
@@ -2126,12 +2221,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="40.15" customHeight="1">
+    <row r="20" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B20" s="10" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>7</v>
@@ -2149,18 +2247,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="40.15" customHeight="1">
+    <row r="21" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B21" s="11" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="11">
         <v>8</v>
@@ -2172,18 +2273,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="40.15" customHeight="1">
+    <row r="22" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B22" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F22" s="10">
         <v>8</v>
@@ -2195,15 +2299,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="40.15" customHeight="1">
+    <row r="23" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B23" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>76</v>
@@ -2218,18 +2325,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="40.15" customHeight="1">
+    <row r="24" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B24" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="10">
         <v>8</v>
@@ -2241,18 +2351,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="40.15" customHeight="1">
+    <row r="25" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B25" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="F25" s="11">
         <v>13</v>
@@ -2264,18 +2377,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="40.15" customHeight="1">
+    <row r="26" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B26" s="10" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F26" s="10">
         <v>13</v>
@@ -2287,15 +2403,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="40.15" customHeight="1">
+    <row r="27" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B27" s="11" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>76</v>
@@ -2310,18 +2429,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="40.15" customHeight="1">
+    <row r="28" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B28" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F28" s="10">
         <v>8</v>
@@ -2333,18 +2455,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="40.15" customHeight="1">
+    <row r="29" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B29" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" s="11">
         <v>5</v>
@@ -2356,18 +2481,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="40.15" customHeight="1">
+    <row r="30" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B30" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" s="10">
         <v>8</v>
@@ -2379,12 +2507,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="40.15" customHeight="1">
+    <row r="31" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B31" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>7</v>
@@ -2402,12 +2533,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="40.15" customHeight="1">
+    <row r="32" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B32" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>7</v>
@@ -2425,12 +2559,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="40.15" customHeight="1">
+    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B33" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>7</v>
@@ -2448,9 +2585,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="40.15" customHeight="1">
+    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B34" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>65</v>
@@ -2471,18 +2611,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="40.15" customHeight="1">
+    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B35" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" s="11">
         <v>21</v>
@@ -2492,9 +2635,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="40.15" customHeight="1"/>
-    <row r="44" spans="2:8" ht="40.15" customHeight="1"/>
-    <row r="46" spans="2:8" ht="40.15" customHeight="1">
+    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -2503,8 +2646,8 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="2:8" ht="40.15" customHeight="1"/>
-    <row r="48" spans="2:8" ht="40.15" customHeight="1">
+    <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -2513,7 +2656,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="2:8" ht="40.15" customHeight="1">
+    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -2522,8 +2665,8 @@
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="2:8" ht="40.15" customHeight="1"/>
-    <row r="51" spans="2:8" ht="40.15" customHeight="1">
+    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -2532,7 +2675,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="2:8" ht="40.15" customHeight="1">
+    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -2541,7 +2684,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="2:8" ht="40.15" customHeight="1">
+    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -2550,7 +2693,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="2:8" ht="40.15" customHeight="1">
+    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -2568,4 +2711,904 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16856E6-9DCD-40AD-91F7-EC610FDB522F}">
+  <dimension ref="A2:J54"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>9</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="11">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
+        <f>SUM(F6:F36)</f>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="10">
+        <v>3</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="11">
+        <v>18</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="10">
+        <v>19</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="10">
+        <v>5</v>
+      </c>
+      <c r="G12" s="10">
+        <v>4</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="11">
+        <v>5</v>
+      </c>
+      <c r="G13" s="11">
+        <v>28</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>26</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="11">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11">
+        <v>27</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="10">
+        <v>5</v>
+      </c>
+      <c r="G16" s="10">
+        <v>11</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="11">
+        <v>8</v>
+      </c>
+      <c r="G17" s="11">
+        <v>5</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="10">
+        <v>8</v>
+      </c>
+      <c r="G18" s="10">
+        <v>10</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="11">
+        <v>8</v>
+      </c>
+      <c r="G19" s="11">
+        <v>12</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="10">
+        <v>8</v>
+      </c>
+      <c r="G20" s="10">
+        <v>17</v>
+      </c>
+      <c r="H20" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="11">
+        <v>8</v>
+      </c>
+      <c r="G21" s="11">
+        <v>21</v>
+      </c>
+      <c r="H21" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="10">
+        <v>8</v>
+      </c>
+      <c r="G22" s="10">
+        <v>22</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="11">
+        <v>13</v>
+      </c>
+      <c r="G23" s="11">
+        <v>7</v>
+      </c>
+      <c r="H23" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="10">
+        <v>13</v>
+      </c>
+      <c r="G24" s="10">
+        <v>6</v>
+      </c>
+      <c r="H24" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="11">
+        <v>13</v>
+      </c>
+      <c r="G25" s="11">
+        <v>25</v>
+      </c>
+      <c r="H25" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="10">
+        <v>13</v>
+      </c>
+      <c r="G26" s="10">
+        <v>8</v>
+      </c>
+      <c r="H26" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="11">
+        <v>13</v>
+      </c>
+      <c r="G27" s="11">
+        <v>29</v>
+      </c>
+      <c r="H27" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="10">
+        <v>13</v>
+      </c>
+      <c r="G28" s="10">
+        <v>29</v>
+      </c>
+      <c r="H28" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="11">
+        <v>13</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="10">
+        <v>13</v>
+      </c>
+      <c r="G30" s="10">
+        <v>13</v>
+      </c>
+      <c r="H30" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="11">
+        <v>13</v>
+      </c>
+      <c r="G31" s="11">
+        <v>16</v>
+      </c>
+      <c r="H31" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="10">
+        <v>13</v>
+      </c>
+      <c r="G32" s="10">
+        <v>14</v>
+      </c>
+      <c r="H32" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="11">
+        <v>13</v>
+      </c>
+      <c r="G33" s="11">
+        <v>24</v>
+      </c>
+      <c r="H33" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="10">
+        <v>13</v>
+      </c>
+      <c r="G34" s="10">
+        <v>20</v>
+      </c>
+      <c r="H34" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="11">
+        <v>13</v>
+      </c>
+      <c r="G35" s="11">
+        <v>23</v>
+      </c>
+      <c r="H35" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="10">
+        <v>21</v>
+      </c>
+      <c r="G36" s="10">
+        <v>24</v>
+      </c>
+      <c r="H36" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>